--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_23_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_23_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1119509.144336235</v>
+        <v>1115561.677540471</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34080684.37599394</v>
+        <v>34050058.36603183</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5986886.669115891</v>
+        <v>6195937.544524018</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4047532.916603027</v>
+        <v>4018880.499755094</v>
       </c>
     </row>
     <row r="11">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>411.8973435780042</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>323.4380012463113</v>
+        <v>257.6977864699114</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>247.370992542233</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>20.40836268805531</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>236.8266411644055</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>339.337437166216</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>381.1535566437813</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>395.2976953871867</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>170.2470891325016</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>151.1827510023116</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>144.5658694711969</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>148.4070803124744</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>155.2866400985657</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>143.4404251843111</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>111.3672766151816</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>42.81099029881875</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>123.3289297115122</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>156.490732893303</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>264.4326096489781</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>249.6527969702757</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>223.284493720626</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.30026393667286</v>
+        <v>205.4921305797371</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>402.383231380763</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>85.5859868102566</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>403.9354118955886</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>248.704569890382</v>
+        <v>247.370992542233</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>190.0001956162832</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>236.8266411644055</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>339.337437166216</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>384.5499190640474</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>170.2470891325016</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>151.1827510023116</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>144.5658694711969</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>148.4070803124744</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>155.2866400985657</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>101.3175240143461</v>
       </c>
       <c r="H16" t="n">
-        <v>124.7930297125143</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>220.1714084563318</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>255.9494222324487</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>264.4326096489781</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>249.6527969702757</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>223.284493720626</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>205.4921305797371</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>402.383231380763</v>
       </c>
       <c r="C17" t="n">
-        <v>426.5834360442955</v>
+        <v>414.1077046891152</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>411.8973435780042</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>62.01372007215874</v>
+        <v>403.9354118955886</v>
       </c>
       <c r="G17" t="n">
-        <v>388.3300523632021</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>259.8467238974132</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>351.8131685213963</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>393.6292879989616</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.773426742367</v>
+        <v>273.1162050322755</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>384.5499190640474</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>182.7228204876818</v>
+        <v>170.2470891325016</v>
       </c>
       <c r="C19" t="n">
-        <v>163.6584823574919</v>
+        <v>151.1827510023116</v>
       </c>
       <c r="D19" t="n">
-        <v>146.2042305347035</v>
+        <v>144.5658694711969</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>167.7623714537459</v>
+        <v>155.2866400985657</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>143.4404251843111</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>135.8046610666924</v>
+        <v>123.3289297115121</v>
       </c>
       <c r="T19" t="n">
-        <v>232.647139811512</v>
+        <v>203.1266578873291</v>
       </c>
       <c r="U19" t="n">
-        <v>268.425153587629</v>
+        <v>255.9494222324487</v>
       </c>
       <c r="V19" t="n">
-        <v>276.9083410041584</v>
+        <v>264.4326096489781</v>
       </c>
       <c r="W19" t="n">
-        <v>262.1285283254559</v>
+        <v>249.6527969702757</v>
       </c>
       <c r="X19" t="n">
-        <v>235.7602250758062</v>
+        <v>223.284493720626</v>
       </c>
       <c r="Y19" t="n">
-        <v>217.9678619349174</v>
+        <v>205.4921305797371</v>
       </c>
     </row>
     <row r="20">
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>414.8589627359432</v>
+        <v>402.383231380763</v>
       </c>
       <c r="C20" t="n">
-        <v>426.5834360442955</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>424.3730749331845</v>
+        <v>411.8973435780042</v>
       </c>
       <c r="E20" t="n">
-        <v>422.2593853491723</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.4111432507689</v>
+        <v>403.9354118955886</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>20.40836268805531</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>190.0001956162832</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>84.91401845013149</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>381.1535566437813</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>395.2976953871867</v>
       </c>
       <c r="Y20" t="n">
-        <v>185.5038133264301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>182.7228204876818</v>
+        <v>170.2470891325016</v>
       </c>
       <c r="C22" t="n">
-        <v>163.6584823574919</v>
+        <v>151.1827510023116</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>144.5658694711969</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>148.4070803124744</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.2866400985657</v>
       </c>
       <c r="G22" t="n">
-        <v>155.9161565394913</v>
+        <v>143.4404251843111</v>
       </c>
       <c r="H22" t="n">
-        <v>123.8430079703618</v>
+        <v>111.3672766151816</v>
       </c>
       <c r="I22" t="n">
-        <v>55.28672165399897</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>135.8046610666924</v>
+        <v>96.16261918512943</v>
       </c>
       <c r="T22" t="n">
-        <v>232.647139811512</v>
+        <v>220.1714084563318</v>
       </c>
       <c r="U22" t="n">
-        <v>268.425153587629</v>
+        <v>255.9494222324487</v>
       </c>
       <c r="V22" t="n">
-        <v>276.9083410041584</v>
+        <v>264.4326096489781</v>
       </c>
       <c r="W22" t="n">
-        <v>241.0492441500534</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.7602250758062</v>
+        <v>223.284493720626</v>
       </c>
       <c r="Y22" t="n">
-        <v>217.9678619349174</v>
+        <v>205.4921305797371</v>
       </c>
     </row>
     <row r="23">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>414.8589627359432</v>
+        <v>402.383231380763</v>
       </c>
       <c r="C23" t="n">
-        <v>426.5834360442955</v>
+        <v>414.1077046891152</v>
       </c>
       <c r="D23" t="n">
-        <v>424.3730749331845</v>
+        <v>411.8973435780042</v>
       </c>
       <c r="E23" t="n">
-        <v>422.2593853491723</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.4111432507689</v>
+        <v>403.9354118955886</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>273.1162050322752</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>185.5038133264301</v>
+        <v>384.5499190640474</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>182.7228204876818</v>
+        <v>170.2470891325016</v>
       </c>
       <c r="C25" t="n">
-        <v>163.6584823574919</v>
+        <v>151.1827510023116</v>
       </c>
       <c r="D25" t="n">
-        <v>157.0416008263771</v>
+        <v>128.6294920867595</v>
       </c>
       <c r="E25" t="n">
-        <v>160.8828116676547</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>167.7623714537459</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>155.9161565394913</v>
+        <v>143.4404251843111</v>
       </c>
       <c r="H25" t="n">
-        <v>123.8430079703618</v>
+        <v>111.3672766151816</v>
       </c>
       <c r="I25" t="n">
-        <v>49.59294692995982</v>
+        <v>42.81099029881875</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>135.8046610666924</v>
+        <v>123.3289297115121</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>220.1714084563318</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>255.9494222324487</v>
       </c>
       <c r="V25" t="n">
-        <v>276.9083410041584</v>
+        <v>264.4326096489781</v>
       </c>
       <c r="W25" t="n">
-        <v>262.1285283254559</v>
+        <v>249.6527969702757</v>
       </c>
       <c r="X25" t="n">
-        <v>235.7602250758062</v>
+        <v>223.284493720626</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.9678619349174</v>
+        <v>205.4921305797371</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>414.8589627359432</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>211.0413560017753</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>416.4111432507689</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>388.3300523632021</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>259.8467238974132</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>202.4759269714635</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>221.2992638288015</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>397.0256504192276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>182.7228204876818</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>98.65983469870464</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>167.7623714537459</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>155.9161565394913</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>55.28672165399898</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>135.8046610666924</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>232.647139811512</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>268.425153587629</v>
+        <v>43.97954181326757</v>
       </c>
       <c r="V28" t="n">
-        <v>276.9083410041584</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>262.1285283254559</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>235.7602250758062</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>217.9678619349174</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2794,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>397.3785123103785</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>395.1681511992675</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>393.0544616152553</v>
+        <v>388.1111211665043</v>
       </c>
       <c r="F29" t="n">
-        <v>387.2062195168519</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>359.1251286292851</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>358.0573423687559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.5178967537648</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>134.4535586235749</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>127.8366770924601</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>131.6778879337377</v>
+        <v>165.7001673820018</v>
       </c>
       <c r="F31" t="n">
-        <v>138.5574477198289</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>126.7112328055744</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>94.63808423644485</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>106.5997373327754</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>203.442216077595</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>239.220229853712</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>247.7034172702414</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>232.923604591539</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>163.944887147545</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>188.7629382010004</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>412.0454294846275</v>
       </c>
       <c r="C32" t="n">
-        <v>399.9512047851607</v>
+        <v>423.7699027929797</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>421.5595416818687</v>
       </c>
       <c r="E32" t="n">
-        <v>395.6271540900376</v>
+        <v>419.4458520978566</v>
       </c>
       <c r="F32" t="n">
-        <v>389.7789119916341</v>
+        <v>234.098893520461</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>233.2144926382785</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>30.07056079191981</v>
       </c>
       <c r="T32" t="n">
-        <v>175.8436957123287</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>325.1809372622615</v>
+        <v>348.9996352700805</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>370.3934191600929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.0905892285471</v>
+        <v>179.9092872363661</v>
       </c>
       <c r="C34" t="n">
-        <v>137.0262510983571</v>
+        <v>160.8449491061761</v>
       </c>
       <c r="D34" t="n">
-        <v>130.4093695672424</v>
+        <v>154.2280675750613</v>
       </c>
       <c r="E34" t="n">
-        <v>134.2505804085199</v>
+        <v>158.0692784163389</v>
       </c>
       <c r="F34" t="n">
-        <v>141.1301401946112</v>
+        <v>164.9488382024302</v>
       </c>
       <c r="G34" t="n">
-        <v>129.2839252803566</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21077671122707</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>28.65449039486425</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>1.889830571398261</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>206.0149085523772</v>
+        <v>224.8669514320331</v>
       </c>
       <c r="U34" t="n">
-        <v>241.7929223284942</v>
+        <v>265.6116203363133</v>
       </c>
       <c r="V34" t="n">
-        <v>250.2761097450237</v>
+        <v>274.0948077528427</v>
       </c>
       <c r="W34" t="n">
-        <v>235.4962970663212</v>
+        <v>259.3149950741402</v>
       </c>
       <c r="X34" t="n">
-        <v>209.1279938166715</v>
+        <v>232.9466918244905</v>
       </c>
       <c r="Y34" t="n">
-        <v>191.3356306757826</v>
+        <v>215.1543286836016</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>388.2267314768085</v>
+        <v>412.0454294846275</v>
       </c>
       <c r="C35" t="n">
-        <v>399.9512047851607</v>
+        <v>423.7699027929797</v>
       </c>
       <c r="D35" t="n">
-        <v>397.7408436740498</v>
+        <v>421.5595416818687</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>419.4458520978566</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>233.2144926382785</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>8.546802371262661</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>199.6623937201477</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>119.3219284221713</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>381.1411954832322</v>
+        <v>404.9598934910512</v>
       </c>
       <c r="Y35" t="n">
-        <v>370.3934191600929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>48.80798999238727</v>
+        <v>179.9092872363661</v>
       </c>
       <c r="C37" t="n">
-        <v>137.0262510983571</v>
+        <v>160.8449491061761</v>
       </c>
       <c r="D37" t="n">
-        <v>130.4093695672424</v>
+        <v>154.2280675750613</v>
       </c>
       <c r="E37" t="n">
-        <v>134.2505804085199</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>141.1301401946112</v>
+        <v>164.9488382024302</v>
       </c>
       <c r="G37" t="n">
-        <v>129.2839252803566</v>
+        <v>153.1026232881756</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21077671122707</v>
+        <v>121.0294747190461</v>
       </c>
       <c r="I37" t="n">
-        <v>28.65449039486425</v>
+        <v>52.47318840268325</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>109.1724298075576</v>
+        <v>59.44402870276131</v>
       </c>
       <c r="T37" t="n">
-        <v>206.0149085523772</v>
+        <v>229.8336065601962</v>
       </c>
       <c r="U37" t="n">
-        <v>241.7929223284942</v>
+        <v>265.6116203363133</v>
       </c>
       <c r="V37" t="n">
-        <v>250.2761097450237</v>
+        <v>274.0948077528427</v>
       </c>
       <c r="W37" t="n">
-        <v>235.4962970663212</v>
+        <v>259.3149950741402</v>
       </c>
       <c r="X37" t="n">
-        <v>209.1279938166715</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>191.3356306757826</v>
+        <v>215.1543286836016</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>412.0454294846275</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>423.7699027929797</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>421.5595416818687</v>
       </c>
       <c r="E38" t="n">
-        <v>66.8834810313042</v>
+        <v>419.4458520978566</v>
       </c>
       <c r="F38" t="n">
-        <v>389.7789119916341</v>
+        <v>413.5976099994531</v>
       </c>
       <c r="G38" t="n">
-        <v>361.6978211040674</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>233.2144926382785</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>30.07056079191981</v>
       </c>
       <c r="T38" t="n">
-        <v>175.8436957123287</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>325.1809372622615</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>366.9970567398268</v>
+        <v>169.500918791089</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>370.3934191600929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.0905892285471</v>
+        <v>179.9092872363661</v>
       </c>
       <c r="C40" t="n">
-        <v>137.0262510983571</v>
+        <v>160.8449491061761</v>
       </c>
       <c r="D40" t="n">
-        <v>130.4093695672424</v>
+        <v>154.2280675750613</v>
       </c>
       <c r="E40" t="n">
-        <v>134.2505804085199</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>141.1301401946112</v>
+        <v>164.9488382024302</v>
       </c>
       <c r="G40" t="n">
-        <v>129.2839252803566</v>
+        <v>153.1026232881756</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21077671122707</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>28.65449039486425</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1.889830571398261</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>206.0149085523772</v>
+        <v>229.8336065601968</v>
       </c>
       <c r="U40" t="n">
-        <v>241.7929223284942</v>
+        <v>265.6116203363133</v>
       </c>
       <c r="V40" t="n">
-        <v>250.2761097450237</v>
+        <v>274.0948077528427</v>
       </c>
       <c r="W40" t="n">
-        <v>235.4962970663212</v>
+        <v>259.3149950741402</v>
       </c>
       <c r="X40" t="n">
-        <v>209.1279938166715</v>
+        <v>232.9466918244905</v>
       </c>
       <c r="Y40" t="n">
-        <v>191.3356306757826</v>
+        <v>215.1543286836016</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>345.1938799948442</v>
+        <v>239.6111636219185</v>
       </c>
       <c r="C41" t="n">
-        <v>399.9512047851607</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>397.7408436740498</v>
+        <v>421.5595416818687</v>
       </c>
       <c r="E41" t="n">
-        <v>395.6271540900376</v>
+        <v>419.4458520978566</v>
       </c>
       <c r="F41" t="n">
-        <v>389.7789119916341</v>
+        <v>413.5976099994531</v>
       </c>
       <c r="G41" t="n">
-        <v>361.6978211040674</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>390.8157547476458</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>404.9598934910512</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48.80798999238727</v>
+        <v>179.9092872363661</v>
       </c>
       <c r="C43" t="n">
-        <v>137.0262510983571</v>
+        <v>160.8449491061761</v>
       </c>
       <c r="D43" t="n">
-        <v>130.4093695672424</v>
+        <v>154.2280675750613</v>
       </c>
       <c r="E43" t="n">
-        <v>134.2505804085199</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>141.1301401946112</v>
+        <v>164.9488382024302</v>
       </c>
       <c r="G43" t="n">
-        <v>129.2839252803566</v>
+        <v>153.1026232881756</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21077671122707</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>28.65449039486425</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>109.1724298075576</v>
+        <v>132.9911278153766</v>
       </c>
       <c r="T43" t="n">
-        <v>206.0149085523772</v>
+        <v>229.8336065601962</v>
       </c>
       <c r="U43" t="n">
-        <v>241.7929223284942</v>
+        <v>265.6116203363133</v>
       </c>
       <c r="V43" t="n">
-        <v>250.2761097450237</v>
+        <v>274.0948077528427</v>
       </c>
       <c r="W43" t="n">
-        <v>235.4962970663212</v>
+        <v>259.3149950741402</v>
       </c>
       <c r="X43" t="n">
-        <v>209.1279938166715</v>
+        <v>232.9466918244905</v>
       </c>
       <c r="Y43" t="n">
-        <v>191.3356306757826</v>
+        <v>82.16320086822479</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>412.0454294846275</v>
       </c>
       <c r="C44" t="n">
-        <v>429.1561285190777</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>419.4458520978566</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>413.5976099994531</v>
       </c>
       <c r="G44" t="n">
-        <v>390.9027448379844</v>
+        <v>219.0547150272405</v>
       </c>
       <c r="H44" t="n">
-        <v>262.4194163721954</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>30.07056079191981</v>
       </c>
       <c r="T44" t="n">
-        <v>205.0486194462457</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.8750649943685</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>354.3858609961785</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>396.2019804737438</v>
+        <v>390.8157547476458</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>404.9598934910512</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.295512962464</v>
+        <v>179.9092872363661</v>
       </c>
       <c r="C46" t="n">
-        <v>166.2311748322741</v>
+        <v>160.8449491061761</v>
       </c>
       <c r="D46" t="n">
-        <v>159.6142933011593</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>163.4555041424369</v>
+        <v>158.0692784163389</v>
       </c>
       <c r="F46" t="n">
-        <v>170.3350639285281</v>
+        <v>164.9488382024302</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>16.27028463152167</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>132.9911278153766</v>
       </c>
       <c r="T46" t="n">
-        <v>235.2198322862942</v>
+        <v>229.8336065601962</v>
       </c>
       <c r="U46" t="n">
-        <v>270.9978460624112</v>
+        <v>265.6116203363133</v>
       </c>
       <c r="V46" t="n">
-        <v>279.4810334789406</v>
+        <v>274.0948077528427</v>
       </c>
       <c r="W46" t="n">
-        <v>264.7012208002382</v>
+        <v>259.3149950741402</v>
       </c>
       <c r="X46" t="n">
-        <v>174.1177794353477</v>
+        <v>232.9466918244905</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.5405544096996</v>
+        <v>215.1543286836016</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1941.185114027048</v>
+        <v>973.4349582056705</v>
       </c>
       <c r="C11" t="n">
-        <v>1941.185114027048</v>
+        <v>973.4349582056705</v>
       </c>
       <c r="D11" t="n">
-        <v>1505.275329201492</v>
+        <v>557.3770353996056</v>
       </c>
       <c r="E11" t="n">
-        <v>1071.500584359787</v>
+        <v>557.3770353996056</v>
       </c>
       <c r="F11" t="n">
-        <v>643.6331547689952</v>
+        <v>557.3770353996056</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>297.0762409855537</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2339.713069682024</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2339.713069682024</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2100.494240223028</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>1757.729152176345</v>
       </c>
       <c r="W11" t="n">
-        <v>2360.327577447737</v>
+        <v>1372.725559606869</v>
       </c>
       <c r="X11" t="n">
-        <v>1941.185114027048</v>
+        <v>973.4349582056705</v>
       </c>
       <c r="Y11" t="n">
-        <v>1941.185114027048</v>
+        <v>973.4349582056705</v>
       </c>
     </row>
     <row r="12">
@@ -5099,25 +5099,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5126,10 +5126,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1092.291841223631</v>
+        <v>953.3288070871972</v>
       </c>
       <c r="C13" t="n">
-        <v>919.7301297068562</v>
+        <v>800.6189575899127</v>
       </c>
       <c r="D13" t="n">
-        <v>753.852136908379</v>
+        <v>654.592826810926</v>
       </c>
       <c r="E13" t="n">
-        <v>584.0941331591162</v>
+        <v>504.6866850811538</v>
       </c>
       <c r="F13" t="n">
-        <v>407.3870791208724</v>
+        <v>347.8314930624006</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6458987333908</v>
+        <v>202.9421746944096</v>
       </c>
       <c r="H13" t="n">
-        <v>110.3018381127067</v>
+        <v>90.44997609321609</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511379</v>
+        <v>212.1487103811304</v>
       </c>
       <c r="K13" t="n">
-        <v>202.912315818696</v>
+        <v>603.1640754851269</v>
       </c>
       <c r="L13" t="n">
-        <v>481.9462364092378</v>
+        <v>1164.701568836689</v>
       </c>
       <c r="M13" t="n">
-        <v>1066.127311827553</v>
+        <v>1315.071645549791</v>
       </c>
       <c r="N13" t="n">
-        <v>1635.885026789087</v>
+        <v>1462.027367318983</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.32015736263</v>
+        <v>1599.250058632048</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540314</v>
+        <v>2066.982818745375</v>
       </c>
       <c r="Q13" t="n">
-        <v>2343.856484770969</v>
+        <v>2324.399674805666</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2235.752900971461</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351143</v>
+        <v>2077.681453604489</v>
       </c>
       <c r="U13" t="n">
-        <v>2118.080353351143</v>
+        <v>2077.681453604489</v>
       </c>
       <c r="V13" t="n">
-        <v>1831.124845221574</v>
+        <v>1810.57780749441</v>
       </c>
       <c r="W13" t="n">
-        <v>1559.098440807865</v>
+        <v>1558.403265100192</v>
       </c>
       <c r="X13" t="n">
-        <v>1313.706686141278</v>
+        <v>1332.863372453095</v>
       </c>
       <c r="Y13" t="n">
-        <v>1284.110459942618</v>
+        <v>1125.295563786694</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1997.710627381563</v>
+        <v>791.5423002843872</v>
       </c>
       <c r="C14" t="n">
-        <v>1559.568154564987</v>
+        <v>791.5423002843872</v>
       </c>
       <c r="D14" t="n">
-        <v>1559.568154564987</v>
+        <v>791.5423002843872</v>
       </c>
       <c r="E14" t="n">
-        <v>1125.793409723282</v>
+        <v>705.0918085568553</v>
       </c>
       <c r="F14" t="n">
-        <v>697.9259801324897</v>
+        <v>297.0762409855537</v>
       </c>
       <c r="G14" t="n">
-        <v>298.4232888119669</v>
+        <v>297.0762409855537</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2168.408187936339</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>1929.189358477343</v>
       </c>
       <c r="V14" t="n">
-        <v>1997.710627381563</v>
+        <v>1586.42427043066</v>
       </c>
       <c r="W14" t="n">
-        <v>1997.710627381563</v>
+        <v>1586.42427043066</v>
       </c>
       <c r="X14" t="n">
-        <v>1997.710627381563</v>
+        <v>1586.42427043066</v>
       </c>
       <c r="Y14" t="n">
-        <v>1997.710627381563</v>
+        <v>1197.990008749804</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.5713050663909</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030332</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5363,7 +5363,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
         <v>803.387703298788</v>
@@ -5399,10 +5399,10 @@
         <v>945.2284211280532</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669333</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.875206146154</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>743.6816307030854</v>
+        <v>755.0447989215756</v>
       </c>
       <c r="C16" t="n">
-        <v>743.6816307030854</v>
+        <v>602.3349494242912</v>
       </c>
       <c r="D16" t="n">
-        <v>577.8036379046081</v>
+        <v>456.3088186453044</v>
       </c>
       <c r="E16" t="n">
-        <v>577.8036379046081</v>
+        <v>306.4026769155323</v>
       </c>
       <c r="F16" t="n">
-        <v>401.0965838663643</v>
+        <v>149.5474848967791</v>
       </c>
       <c r="G16" t="n">
-        <v>236.3554034788827</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>212.1487103811304</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545214</v>
+        <v>603.1640754851269</v>
       </c>
       <c r="L16" t="n">
-        <v>688.1212571728194</v>
+        <v>746.4916870687275</v>
       </c>
       <c r="M16" t="n">
-        <v>1272.302332591134</v>
+        <v>896.5528893725597</v>
       </c>
       <c r="N16" t="n">
-        <v>1399.801244395024</v>
+        <v>1480.733964790874</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527956</v>
+        <v>1617.956656103939</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675981</v>
+        <v>2066.982818745375</v>
       </c>
       <c r="Q16" t="n">
-        <v>2343.856484770969</v>
+        <v>2324.399674805666</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T16" t="n">
-        <v>1973.653814855378</v>
+        <v>2137.932215370633</v>
       </c>
       <c r="U16" t="n">
-        <v>1695.267182904121</v>
+        <v>1879.397445438867</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774552</v>
+        <v>1612.293799328788</v>
       </c>
       <c r="W16" t="n">
-        <v>1408.311674774552</v>
+        <v>1360.11925693457</v>
       </c>
       <c r="X16" t="n">
-        <v>1162.919920107964</v>
+        <v>1134.579364287473</v>
       </c>
       <c r="Y16" t="n">
-        <v>935.5002494220726</v>
+        <v>927.0115556210721</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1195.46304889953</v>
+        <v>1289.570652723407</v>
       </c>
       <c r="C17" t="n">
-        <v>764.5706892588275</v>
+        <v>871.2800419263212</v>
       </c>
       <c r="D17" t="n">
-        <v>764.5706892588275</v>
+        <v>455.2221191202564</v>
       </c>
       <c r="E17" t="n">
-        <v>764.5706892588275</v>
+        <v>455.2221191202564</v>
       </c>
       <c r="F17" t="n">
-        <v>701.9305679738187</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G17" t="n">
-        <v>309.6779898291701</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
@@ -5533,7 +5533,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
@@ -5551,16 +5551,16 @@
         <v>2360.327577447737</v>
       </c>
       <c r="V17" t="n">
-        <v>2004.960740557438</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W17" t="n">
-        <v>1607.355399144345</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X17" t="n">
-        <v>1195.46304889953</v>
+        <v>2084.45262286968</v>
       </c>
       <c r="Y17" t="n">
-        <v>1195.46304889953</v>
+        <v>1696.018361188825</v>
       </c>
     </row>
     <row r="18">
@@ -5573,25 +5573,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>529.6561316963702</v>
+        <v>647.6870422119702</v>
       </c>
       <c r="C19" t="n">
-        <v>364.3445333554693</v>
+        <v>494.9771927146857</v>
       </c>
       <c r="D19" t="n">
-        <v>216.6634924113243</v>
+        <v>348.9510619356989</v>
       </c>
       <c r="E19" t="n">
-        <v>216.6634924113243</v>
+        <v>348.9510619356989</v>
       </c>
       <c r="F19" t="n">
-        <v>47.20655154895474</v>
+        <v>192.0958699169458</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>199.797736339502</v>
+        <v>212.1487103811304</v>
       </c>
       <c r="K19" t="n">
-        <v>578.46212740187</v>
+        <v>603.1640754851269</v>
       </c>
       <c r="L19" t="n">
-        <v>792.6454403396195</v>
+        <v>1164.701568836689</v>
       </c>
       <c r="M19" t="n">
-        <v>1376.826515757934</v>
+        <v>1314.762771140521</v>
       </c>
       <c r="N19" t="n">
-        <v>1511.431263485498</v>
+        <v>1461.718492909713</v>
       </c>
       <c r="O19" t="n">
-        <v>1636.302980756934</v>
+        <v>1599.250058632048</v>
       </c>
       <c r="P19" t="n">
-        <v>2091.684766828634</v>
+        <v>2066.982818745376</v>
       </c>
       <c r="Q19" t="n">
-        <v>2336.750648847295</v>
+        <v>2324.399674805667</v>
       </c>
       <c r="R19" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2223.151152127846</v>
+        <v>2235.752900971462</v>
       </c>
       <c r="T19" t="n">
-        <v>1988.154041207127</v>
+        <v>2030.574458661028</v>
       </c>
       <c r="U19" t="n">
-        <v>1717.017522431744</v>
+        <v>1772.039688729262</v>
       </c>
       <c r="V19" t="n">
-        <v>1437.312127478048</v>
+        <v>1504.936042619183</v>
       </c>
       <c r="W19" t="n">
-        <v>1172.535836240214</v>
+        <v>1252.761500224965</v>
       </c>
       <c r="X19" t="n">
-        <v>934.3941947495006</v>
+        <v>1027.221607577868</v>
       </c>
       <c r="Y19" t="n">
-        <v>714.2246372394831</v>
+        <v>819.6537989114668</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1753.900530920087</v>
+        <v>871.2800419263212</v>
       </c>
       <c r="C20" t="n">
-        <v>1323.008171279385</v>
+        <v>871.2800419263212</v>
       </c>
       <c r="D20" t="n">
-        <v>894.3484996297034</v>
+        <v>455.2221191202564</v>
       </c>
       <c r="E20" t="n">
-        <v>467.8238679638728</v>
+        <v>455.2221191202564</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
@@ -5770,7 +5770,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2339.713069682024</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2147.793680170627</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2062.021944362413</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>2062.021944362413</v>
       </c>
       <c r="W20" t="n">
-        <v>2360.327577447737</v>
+        <v>1677.018351792937</v>
       </c>
       <c r="X20" t="n">
-        <v>2360.327577447737</v>
+        <v>1277.727750391738</v>
       </c>
       <c r="Y20" t="n">
-        <v>2172.949988229121</v>
+        <v>1277.727750391738</v>
       </c>
     </row>
     <row r="21">
@@ -5810,37 +5810,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987882</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5852,7 +5852,7 @@
         <v>1488.088567599445</v>
       </c>
       <c r="Q21" t="n">
-        <v>1614.94766180768</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R21" t="n">
         <v>1676.651116233592</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>550.9483379341507</v>
+        <v>910.0853825429358</v>
       </c>
       <c r="C22" t="n">
-        <v>385.6367395932498</v>
+        <v>757.3755330456513</v>
       </c>
       <c r="D22" t="n">
-        <v>385.6367395932498</v>
+        <v>611.3494022666646</v>
       </c>
       <c r="E22" t="n">
-        <v>385.6367395932498</v>
+        <v>461.4432605368925</v>
       </c>
       <c r="F22" t="n">
-        <v>385.6367395932498</v>
+        <v>304.5880685181393</v>
       </c>
       <c r="G22" t="n">
-        <v>228.1456723816424</v>
+        <v>159.6987501501482</v>
       </c>
       <c r="H22" t="n">
-        <v>103.0517249368325</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>113.2180511748122</v>
+        <v>212.1487103811304</v>
       </c>
       <c r="K22" t="n">
-        <v>217.1239876660447</v>
+        <v>603.1640754851269</v>
       </c>
       <c r="L22" t="n">
-        <v>766.310506975978</v>
+        <v>1164.701568836689</v>
       </c>
       <c r="M22" t="n">
-        <v>1304.664160502494</v>
+        <v>1315.071645549792</v>
       </c>
       <c r="N22" t="n">
-        <v>1439.268908230058</v>
+        <v>1462.027367318984</v>
       </c>
       <c r="O22" t="n">
-        <v>1983.809874727276</v>
+        <v>1599.250058632048</v>
       </c>
       <c r="P22" t="n">
-        <v>2091.684766828634</v>
+        <v>2066.982818745376</v>
       </c>
       <c r="Q22" t="n">
-        <v>2336.750648847295</v>
+        <v>2324.399674805667</v>
       </c>
       <c r="R22" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2223.151152127846</v>
+        <v>2263.193618674879</v>
       </c>
       <c r="T22" t="n">
-        <v>1988.154041207127</v>
+        <v>2040.798256597776</v>
       </c>
       <c r="U22" t="n">
-        <v>1717.017522431744</v>
+        <v>1782.263486666009</v>
       </c>
       <c r="V22" t="n">
-        <v>1437.312127478048</v>
+        <v>1515.15984055593</v>
       </c>
       <c r="W22" t="n">
-        <v>1193.828042477994</v>
+        <v>1515.15984055593</v>
       </c>
       <c r="X22" t="n">
-        <v>955.6864009872811</v>
+        <v>1289.619947908833</v>
       </c>
       <c r="Y22" t="n">
-        <v>735.5168434772636</v>
+        <v>1082.052139242432</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1753.900530920087</v>
+        <v>1565.445607301463</v>
       </c>
       <c r="C23" t="n">
-        <v>1323.008171279385</v>
+        <v>1147.154996504377</v>
       </c>
       <c r="D23" t="n">
-        <v>894.3484996297034</v>
+        <v>731.0970736983122</v>
       </c>
       <c r="E23" t="n">
-        <v>467.8238679638728</v>
+        <v>731.0970736983122</v>
       </c>
       <c r="F23" t="n">
-        <v>47.20655154895474</v>
+        <v>323.0815061270105</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
@@ -6034,7 +6034,7 @@
         <v>2360.327577447737</v>
       </c>
       <c r="Y23" t="n">
-        <v>2172.949988229121</v>
+        <v>1971.893315766881</v>
       </c>
     </row>
     <row r="24">
@@ -6047,22 +6047,22 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
         <v>81.42328772043086</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1035.789761392472</v>
+        <v>630.4701224453008</v>
       </c>
       <c r="C25" t="n">
-        <v>870.4781630515715</v>
+        <v>477.7602729480163</v>
       </c>
       <c r="D25" t="n">
-        <v>711.8502834289684</v>
+        <v>347.8314930624006</v>
       </c>
       <c r="E25" t="n">
-        <v>549.3423928555799</v>
+        <v>347.8314930624006</v>
       </c>
       <c r="F25" t="n">
-        <v>379.8854519932103</v>
+        <v>347.8314930624006</v>
       </c>
       <c r="G25" t="n">
-        <v>222.3943847816029</v>
+        <v>202.9421746944096</v>
       </c>
       <c r="H25" t="n">
-        <v>97.30043733679295</v>
+        <v>90.44997609321609</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
-        <v>199.797736339502</v>
+        <v>212.1487103811304</v>
       </c>
       <c r="K25" t="n">
-        <v>578.46212740187</v>
+        <v>603.1640754851269</v>
       </c>
       <c r="L25" t="n">
-        <v>1127.648646711803</v>
+        <v>1164.701568836689</v>
       </c>
       <c r="M25" t="n">
-        <v>1265.358874974007</v>
+        <v>1315.071645549791</v>
       </c>
       <c r="N25" t="n">
-        <v>1399.963622701571</v>
+        <v>1462.027367318984</v>
       </c>
       <c r="O25" t="n">
-        <v>1636.302980756934</v>
+        <v>1599.250058632048</v>
       </c>
       <c r="P25" t="n">
-        <v>2091.684766828634</v>
+        <v>2066.982818745376</v>
       </c>
       <c r="Q25" t="n">
-        <v>2336.750648847295</v>
+        <v>2324.399674805667</v>
       </c>
       <c r="R25" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2223.151152127846</v>
+        <v>2235.752900971462</v>
       </c>
       <c r="T25" t="n">
-        <v>2223.151152127846</v>
+        <v>2013.357538894359</v>
       </c>
       <c r="U25" t="n">
-        <v>2223.151152127846</v>
+        <v>1754.822768962592</v>
       </c>
       <c r="V25" t="n">
-        <v>1943.44575717415</v>
+        <v>1487.719122852513</v>
       </c>
       <c r="W25" t="n">
-        <v>1678.669465936316</v>
+        <v>1235.544580458296</v>
       </c>
       <c r="X25" t="n">
-        <v>1440.527824445603</v>
+        <v>1010.004687811199</v>
       </c>
       <c r="Y25" t="n">
-        <v>1220.358266935585</v>
+        <v>802.4368791447973</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1335.720971259217</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="C26" t="n">
-        <v>1335.720971259217</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D26" t="n">
-        <v>1335.720971259217</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E26" t="n">
-        <v>1122.547884388737</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F26" t="n">
-        <v>701.9305679738187</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G26" t="n">
-        <v>309.6779898291701</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L26" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N26" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O26" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q26" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R26" t="n">
         <v>2360.327577447737</v>
@@ -6256,22 +6256,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2155.806439092723</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U26" t="n">
-        <v>2155.806439092723</v>
+        <v>2136.792967519655</v>
       </c>
       <c r="V26" t="n">
-        <v>2155.806439092723</v>
+        <v>1774.176017453481</v>
       </c>
       <c r="W26" t="n">
-        <v>2155.806439092723</v>
+        <v>1774.176017453481</v>
       </c>
       <c r="X26" t="n">
-        <v>2155.806439092723</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="Y26" t="n">
-        <v>1754.770428568251</v>
+        <v>1355.033554032792</v>
       </c>
     </row>
     <row r="27">
@@ -6284,7 +6284,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
         <v>341.0245550495863</v>
@@ -6296,13 +6296,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J27" t="n">
         <v>175.316627066898</v>
@@ -6311,16 +6311,16 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L27" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M27" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N27" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O27" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P27" t="n">
         <v>1488.088567599445</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>529.6561316963697</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C28" t="n">
-        <v>429.9997330108095</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D28" t="n">
-        <v>429.9997330108095</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E28" t="n">
-        <v>429.9997330108095</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F28" t="n">
-        <v>260.5427921484399</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G28" t="n">
-        <v>103.0517249368325</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H28" t="n">
-        <v>103.0517249368325</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J28" t="n">
-        <v>199.797736339502</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>578.46212740187</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L28" t="n">
-        <v>1127.648646711803</v>
+        <v>601.5415720081296</v>
       </c>
       <c r="M28" t="n">
-        <v>1376.826515757934</v>
+        <v>897.9345369632209</v>
       </c>
       <c r="N28" t="n">
-        <v>1511.431263485498</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O28" t="n">
-        <v>1636.302980756934</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P28" t="n">
-        <v>2091.684766828633</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q28" t="n">
-        <v>2336.750648847295</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R28" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2223.151152127845</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T28" t="n">
-        <v>1988.154041207126</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U28" t="n">
-        <v>1717.017522431743</v>
+        <v>2315.903797838376</v>
       </c>
       <c r="V28" t="n">
-        <v>1437.312127478048</v>
+        <v>2028.948289708806</v>
       </c>
       <c r="W28" t="n">
-        <v>1172.535836240213</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X28" t="n">
-        <v>934.3941947495001</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y28" t="n">
-        <v>714.2246372394826</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1998.653494246973</v>
+        <v>1536.329659438081</v>
       </c>
       <c r="C29" t="n">
-        <v>1597.261057569823</v>
+        <v>1536.329659438081</v>
       </c>
       <c r="D29" t="n">
-        <v>1198.101308883695</v>
+        <v>1536.329659438081</v>
       </c>
       <c r="E29" t="n">
-        <v>801.0766001814164</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F29" t="n">
-        <v>409.9592067300509</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J29" t="n">
         <v>276.0532770435808</v>
@@ -6502,13 +6502,13 @@
         <v>2360.327577447737</v>
       </c>
       <c r="W29" t="n">
-        <v>2360.327577447737</v>
+        <v>1955.47212285877</v>
       </c>
       <c r="X29" t="n">
-        <v>2360.327577447737</v>
+        <v>1536.329659438081</v>
       </c>
       <c r="Y29" t="n">
-        <v>1998.653494246973</v>
+        <v>1536.329659438081</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>808.6963378233193</v>
+        <v>894.468396736399</v>
       </c>
       <c r="C31" t="n">
-        <v>672.8846624459709</v>
+        <v>721.9066852196239</v>
       </c>
       <c r="D31" t="n">
-        <v>543.7567057869203</v>
+        <v>556.0286924211466</v>
       </c>
       <c r="E31" t="n">
-        <v>410.7487381770842</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F31" t="n">
-        <v>270.7917202782671</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G31" t="n">
-        <v>142.8005760302122</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H31" t="n">
         <v>47.20655154895474</v>
@@ -6621,52 +6621,52 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J31" t="n">
-        <v>142.1309256713899</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K31" t="n">
-        <v>549.7081912303358</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L31" t="n">
-        <v>1127.807585036847</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M31" t="n">
-        <v>1294.430687795628</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N31" t="n">
-        <v>1457.94831001977</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.732901787784</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P31" t="n">
-        <v>2096.027562356061</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q31" t="n">
-        <v>2307.837774350718</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R31" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2252.651075091398</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T31" t="n">
-        <v>2047.153887134231</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U31" t="n">
-        <v>1805.517291322401</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="V31" t="n">
-        <v>1555.311819332258</v>
+        <v>1831.124845221574</v>
       </c>
       <c r="W31" t="n">
-        <v>1320.035451057976</v>
+        <v>1559.098440807865</v>
       </c>
       <c r="X31" t="n">
-        <v>1154.434554949345</v>
+        <v>1313.706686141278</v>
       </c>
       <c r="Y31" t="n">
-        <v>963.7649204028797</v>
+        <v>1086.287015455386</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1480.107322766239</v>
+        <v>1561.220884976395</v>
       </c>
       <c r="C32" t="n">
-        <v>1076.116206821632</v>
+        <v>1133.1704781148</v>
       </c>
       <c r="D32" t="n">
-        <v>1076.116206821632</v>
+        <v>707.3527592442251</v>
       </c>
       <c r="E32" t="n">
-        <v>676.4928188518969</v>
+        <v>283.6700803575013</v>
       </c>
       <c r="F32" t="n">
-        <v>282.7767461330745</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G32" t="n">
-        <v>282.7767461330745</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
@@ -6727,25 +6727,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2329.953273617515</v>
       </c>
       <c r="T32" t="n">
-        <v>2182.707682788819</v>
+        <v>2329.953273617515</v>
       </c>
       <c r="U32" t="n">
-        <v>2182.707682788819</v>
+        <v>2329.953273617515</v>
       </c>
       <c r="V32" t="n">
-        <v>1854.242089594615</v>
+        <v>1977.428389506322</v>
       </c>
       <c r="W32" t="n">
-        <v>1854.242089594615</v>
+        <v>1977.428389506322</v>
       </c>
       <c r="X32" t="n">
-        <v>1854.242089594615</v>
+        <v>1977.428389506322</v>
       </c>
       <c r="Y32" t="n">
-        <v>1480.107322766239</v>
+        <v>1977.428389506322</v>
       </c>
     </row>
     <row r="33">
@@ -6758,25 +6758,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E33" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J33" t="n">
         <v>175.316627066898</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>853.2323431198423</v>
+        <v>691.7430498317897</v>
       </c>
       <c r="C34" t="n">
-        <v>714.8219884750371</v>
+        <v>529.2734042699956</v>
       </c>
       <c r="D34" t="n">
-        <v>583.0953525485296</v>
+        <v>373.4874774264993</v>
       </c>
       <c r="E34" t="n">
-        <v>447.4887056712367</v>
+        <v>213.8215396322175</v>
       </c>
       <c r="F34" t="n">
-        <v>304.9330085049628</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G34" t="n">
-        <v>174.3431849894511</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H34" t="n">
-        <v>76.15048124073682</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J34" t="n">
-        <v>139.5839601213555</v>
+        <v>202.5831342583046</v>
       </c>
       <c r="K34" t="n">
-        <v>505.3684055599931</v>
+        <v>584.0329232394752</v>
       </c>
       <c r="L34" t="n">
-        <v>1080.92083381647</v>
+        <v>1136.004840468211</v>
       </c>
       <c r="M34" t="n">
-        <v>1244.996971025217</v>
+        <v>1362.89952616392</v>
       </c>
       <c r="N34" t="n">
-        <v>1405.967627699324</v>
+        <v>1500.289671810287</v>
       </c>
       <c r="O34" t="n">
-        <v>1557.205253917304</v>
+        <v>1627.946787000525</v>
       </c>
       <c r="P34" t="n">
-        <v>2038.952948935547</v>
+        <v>2086.113970991027</v>
       </c>
       <c r="Q34" t="n">
-        <v>2310.384739900752</v>
+        <v>2333.965250928492</v>
       </c>
       <c r="R34" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2358.418657678648</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T34" t="n">
-        <v>2150.322790454024</v>
+        <v>2133.189242667905</v>
       </c>
       <c r="U34" t="n">
-        <v>1906.087515374737</v>
+        <v>1864.894676671629</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.283364117138</v>
+        <v>1588.03123449704</v>
       </c>
       <c r="W34" t="n">
-        <v>1415.408316575399</v>
+        <v>1326.096896038313</v>
       </c>
       <c r="X34" t="n">
-        <v>1204.167918780781</v>
+        <v>1090.797207326706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1010.89960496686</v>
+        <v>873.4696025957958</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1088.526290031267</v>
+        <v>1324.757356167849</v>
       </c>
       <c r="C35" t="n">
-        <v>684.53517408666</v>
+        <v>896.7069493062531</v>
       </c>
       <c r="D35" t="n">
-        <v>282.7767461330744</v>
+        <v>470.8892304356786</v>
       </c>
       <c r="E35" t="n">
-        <v>282.7767461330744</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F35" t="n">
-        <v>282.7767461330744</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G35" t="n">
-        <v>282.7767461330744</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H35" t="n">
         <v>47.20655154895473</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2351.69444373939</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2150.015258163484</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447737</v>
+        <v>2150.015258163484</v>
       </c>
       <c r="V35" t="n">
-        <v>2360.327577447737</v>
+        <v>2150.015258163484</v>
       </c>
       <c r="W35" t="n">
-        <v>2239.800377021301</v>
+        <v>2150.015258163484</v>
       </c>
       <c r="X35" t="n">
-        <v>1854.809270472581</v>
+        <v>1740.964860697776</v>
       </c>
       <c r="Y35" t="n">
-        <v>1480.674503644205</v>
+        <v>1740.964860697776</v>
       </c>
     </row>
     <row r="36">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>853.2323431198422</v>
+        <v>861.9814417444826</v>
       </c>
       <c r="C37" t="n">
-        <v>714.821988475037</v>
+        <v>699.5117961826885</v>
       </c>
       <c r="D37" t="n">
-        <v>583.0953525485295</v>
+        <v>543.7258693391922</v>
       </c>
       <c r="E37" t="n">
-        <v>447.4887056712366</v>
+        <v>543.7258693391922</v>
       </c>
       <c r="F37" t="n">
-        <v>304.9330085049627</v>
+        <v>377.1108812559294</v>
       </c>
       <c r="G37" t="n">
-        <v>174.343184989451</v>
+        <v>222.4617668234288</v>
       </c>
       <c r="H37" t="n">
-        <v>76.15048124073681</v>
+        <v>100.2097721577257</v>
       </c>
       <c r="I37" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
-        <v>139.5839601213555</v>
+        <v>202.5831342583046</v>
       </c>
       <c r="K37" t="n">
-        <v>505.3684055599922</v>
+        <v>584.0329232394752</v>
       </c>
       <c r="L37" t="n">
-        <v>1080.920833816469</v>
+        <v>1136.004840468211</v>
       </c>
       <c r="M37" t="n">
-        <v>1244.996971025216</v>
+        <v>1276.500466649218</v>
       </c>
       <c r="N37" t="n">
-        <v>1405.967627699323</v>
+        <v>1428.127316554847</v>
       </c>
       <c r="O37" t="n">
-        <v>1557.205253917303</v>
+        <v>1975.453680970867</v>
       </c>
       <c r="P37" t="n">
-        <v>2038.952948935546</v>
+        <v>2086.113970991027</v>
       </c>
       <c r="Q37" t="n">
-        <v>2310.384739900751</v>
+        <v>2333.965250928492</v>
       </c>
       <c r="R37" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2250.052395823941</v>
+        <v>2300.283104010604</v>
       </c>
       <c r="T37" t="n">
-        <v>2041.956528599317</v>
+        <v>2068.127945868991</v>
       </c>
       <c r="U37" t="n">
-        <v>1797.72125352003</v>
+        <v>1799.833379872716</v>
       </c>
       <c r="V37" t="n">
-        <v>1544.917102262431</v>
+        <v>1522.969937698127</v>
       </c>
       <c r="W37" t="n">
-        <v>1307.042054720692</v>
+        <v>1261.0355992394</v>
       </c>
       <c r="X37" t="n">
-        <v>1095.801656926074</v>
+        <v>1261.0355992394</v>
       </c>
       <c r="Y37" t="n">
-        <v>902.5333431121526</v>
+        <v>1043.707994508489</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1109.403225049242</v>
+        <v>1742.53271980366</v>
       </c>
       <c r="C38" t="n">
-        <v>1109.403225049242</v>
+        <v>1314.482312942064</v>
       </c>
       <c r="D38" t="n">
-        <v>1109.403225049242</v>
+        <v>888.6645940714899</v>
       </c>
       <c r="E38" t="n">
-        <v>1041.84415330045</v>
+        <v>464.981915184766</v>
       </c>
       <c r="F38" t="n">
-        <v>648.1280805816275</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G38" t="n">
-        <v>282.7767461330745</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H38" t="n">
         <v>47.20655154895474</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2329.953273617515</v>
       </c>
       <c r="T38" t="n">
-        <v>2182.707682788819</v>
+        <v>2329.953273617515</v>
       </c>
       <c r="U38" t="n">
-        <v>2182.707682788819</v>
+        <v>2329.953273617515</v>
       </c>
       <c r="V38" t="n">
-        <v>1854.242089594615</v>
+        <v>2329.953273617515</v>
       </c>
       <c r="W38" t="n">
-        <v>1483.537991877619</v>
+        <v>2158.740224333587</v>
       </c>
       <c r="X38" t="n">
-        <v>1483.537991877619</v>
+        <v>2158.740224333587</v>
       </c>
       <c r="Y38" t="n">
-        <v>1109.403225049242</v>
+        <v>2158.740224333587</v>
       </c>
     </row>
     <row r="39">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>853.2323431198423</v>
+        <v>686.7262264700086</v>
       </c>
       <c r="C40" t="n">
-        <v>714.8219884750371</v>
+        <v>524.2565809082145</v>
       </c>
       <c r="D40" t="n">
-        <v>583.0953525485296</v>
+        <v>368.4706540647181</v>
       </c>
       <c r="E40" t="n">
-        <v>447.4887056712367</v>
+        <v>368.4706540647181</v>
       </c>
       <c r="F40" t="n">
-        <v>304.9330085049628</v>
+        <v>201.8556659814553</v>
       </c>
       <c r="G40" t="n">
-        <v>174.3431849894511</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H40" t="n">
-        <v>76.15048124073682</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I40" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
-        <v>139.5839601213555</v>
+        <v>202.5831342583046</v>
       </c>
       <c r="K40" t="n">
-        <v>505.3684055599936</v>
+        <v>584.0329232394753</v>
       </c>
       <c r="L40" t="n">
-        <v>1080.92083381647</v>
+        <v>1136.004840468211</v>
       </c>
       <c r="M40" t="n">
-        <v>1244.996971025217</v>
+        <v>1362.899526163921</v>
       </c>
       <c r="N40" t="n">
-        <v>1405.967627699324</v>
+        <v>1500.289671810287</v>
       </c>
       <c r="O40" t="n">
-        <v>1557.205253917304</v>
+        <v>1627.946787000526</v>
       </c>
       <c r="P40" t="n">
-        <v>2038.952948935547</v>
+        <v>2086.113970991028</v>
       </c>
       <c r="Q40" t="n">
-        <v>2310.384739900752</v>
+        <v>2333.965250928493</v>
       </c>
       <c r="R40" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2358.418657678648</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T40" t="n">
-        <v>2150.322790454024</v>
+        <v>2128.172419306124</v>
       </c>
       <c r="U40" t="n">
-        <v>1906.087515374737</v>
+        <v>1859.877853309848</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.283364117138</v>
+        <v>1583.014411135259</v>
       </c>
       <c r="W40" t="n">
-        <v>1415.408316575399</v>
+        <v>1321.080072676532</v>
       </c>
       <c r="X40" t="n">
-        <v>1204.167918780781</v>
+        <v>1085.780383964925</v>
       </c>
       <c r="Y40" t="n">
-        <v>1010.89960496686</v>
+        <v>868.4527792340147</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2011.646890584258</v>
+        <v>1314.482312942064</v>
       </c>
       <c r="C41" t="n">
-        <v>1607.655774639651</v>
+        <v>1314.482312942064</v>
       </c>
       <c r="D41" t="n">
-        <v>1205.897346686065</v>
+        <v>888.6645940714899</v>
       </c>
       <c r="E41" t="n">
-        <v>806.2739587163301</v>
+        <v>464.981915184766</v>
       </c>
       <c r="F41" t="n">
-        <v>412.5578859975077</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G41" t="n">
         <v>47.20655154895473</v>
@@ -7411,13 +7411,13 @@
         <v>118.4065018001351</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L41" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M41" t="n">
         <v>1131.588690455489</v>
@@ -7450,13 +7450,13 @@
         <v>2360.327577447737</v>
       </c>
       <c r="W41" t="n">
-        <v>2360.327577447737</v>
+        <v>1965.564188813751</v>
       </c>
       <c r="X41" t="n">
-        <v>2360.327577447737</v>
+        <v>1556.513791348043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2360.327577447737</v>
+        <v>1556.513791348043</v>
       </c>
     </row>
     <row r="42">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>853.2323431198422</v>
+        <v>686.7262264700086</v>
       </c>
       <c r="C43" t="n">
-        <v>714.821988475037</v>
+        <v>524.2565809082145</v>
       </c>
       <c r="D43" t="n">
-        <v>583.0953525485295</v>
+        <v>368.4706540647181</v>
       </c>
       <c r="E43" t="n">
-        <v>447.4887056712366</v>
+        <v>368.4706540647181</v>
       </c>
       <c r="F43" t="n">
-        <v>304.9330085049627</v>
+        <v>201.8556659814553</v>
       </c>
       <c r="G43" t="n">
-        <v>174.343184989451</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H43" t="n">
-        <v>76.15048124073681</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I43" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J43" t="n">
-        <v>139.5839601213555</v>
+        <v>202.5831342583046</v>
       </c>
       <c r="K43" t="n">
-        <v>505.3684055599927</v>
+        <v>584.0329232394752</v>
       </c>
       <c r="L43" t="n">
-        <v>1080.920833816469</v>
+        <v>1136.004840468211</v>
       </c>
       <c r="M43" t="n">
-        <v>1244.996971025216</v>
+        <v>1276.500466649218</v>
       </c>
       <c r="N43" t="n">
-        <v>1405.967627699323</v>
+        <v>1413.890612295584</v>
       </c>
       <c r="O43" t="n">
-        <v>1557.205253917303</v>
+        <v>1961.216976711604</v>
       </c>
       <c r="P43" t="n">
-        <v>2038.952948935546</v>
+        <v>2086.113970991027</v>
       </c>
       <c r="Q43" t="n">
-        <v>2310.384739900751</v>
+        <v>2333.965250928492</v>
       </c>
       <c r="R43" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2250.052395823941</v>
+        <v>2225.993104906952</v>
       </c>
       <c r="T43" t="n">
-        <v>2041.956528599317</v>
+        <v>1993.837946765339</v>
       </c>
       <c r="U43" t="n">
-        <v>1797.72125352003</v>
+        <v>1725.543380769063</v>
       </c>
       <c r="V43" t="n">
-        <v>1544.917102262431</v>
+        <v>1448.679938594475</v>
       </c>
       <c r="W43" t="n">
-        <v>1307.042054720692</v>
+        <v>1186.745600135747</v>
       </c>
       <c r="X43" t="n">
-        <v>1095.801656926074</v>
+        <v>951.4459114241407</v>
       </c>
       <c r="Y43" t="n">
-        <v>902.5333431121526</v>
+        <v>868.4527792340147</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1140.618965416892</v>
+        <v>1109.931982987894</v>
       </c>
       <c r="C44" t="n">
-        <v>707.1279265087323</v>
+        <v>1109.931982987894</v>
       </c>
       <c r="D44" t="n">
-        <v>707.1279265087323</v>
+        <v>1109.931982987894</v>
       </c>
       <c r="E44" t="n">
-        <v>707.1279265087323</v>
+        <v>686.2493041011705</v>
       </c>
       <c r="F44" t="n">
-        <v>707.1279265087323</v>
+        <v>268.4739404653592</v>
       </c>
       <c r="G44" t="n">
-        <v>312.2766690966269</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R44" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>2329.953273617515</v>
       </c>
       <c r="T44" t="n">
-        <v>2153.207759825266</v>
+        <v>2329.953273617515</v>
       </c>
       <c r="U44" t="n">
-        <v>1898.788502255197</v>
+        <v>2329.953273617515</v>
       </c>
       <c r="V44" t="n">
-        <v>1540.822986097441</v>
+        <v>2329.953273617515</v>
       </c>
       <c r="W44" t="n">
-        <v>1140.618965416892</v>
+        <v>1935.18988498353</v>
       </c>
       <c r="X44" t="n">
-        <v>1140.618965416892</v>
+        <v>1526.139487517821</v>
       </c>
       <c r="Y44" t="n">
-        <v>1140.618965416892</v>
+        <v>1526.139487517821</v>
       </c>
     </row>
     <row r="45">
@@ -7706,25 +7706,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E45" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>713.505578018044</v>
+        <v>552.3917539292244</v>
       </c>
       <c r="C46" t="n">
-        <v>545.5953004096864</v>
+        <v>389.9221083674303</v>
       </c>
       <c r="D46" t="n">
-        <v>384.3687415196265</v>
+        <v>389.9221083674303</v>
       </c>
       <c r="E46" t="n">
-        <v>219.2621716787811</v>
+        <v>230.2561705731485</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895473</v>
+        <v>63.64118248988572</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
-        <v>197.2507707894676</v>
+        <v>202.5831342583046</v>
       </c>
       <c r="K46" t="n">
-        <v>573.3681963018013</v>
+        <v>584.0329232394753</v>
       </c>
       <c r="L46" t="n">
-        <v>1120.0077500617</v>
+        <v>717.7949587002502</v>
       </c>
       <c r="M46" t="n">
-        <v>1255.171012773869</v>
+        <v>1301.976034118565</v>
       </c>
       <c r="N46" t="n">
-        <v>1387.228794951398</v>
+        <v>1439.366179764932</v>
       </c>
       <c r="O46" t="n">
-        <v>1643.943877407036</v>
+        <v>1627.946787000526</v>
       </c>
       <c r="P46" t="n">
-        <v>2096.778697928701</v>
+        <v>2086.113970991028</v>
       </c>
       <c r="Q46" t="n">
-        <v>2339.297614397329</v>
+        <v>2333.965250928493</v>
       </c>
       <c r="R46" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447737</v>
+        <v>2225.993104906952</v>
       </c>
       <c r="T46" t="n">
-        <v>2122.73178725956</v>
+        <v>1993.83794676534</v>
       </c>
       <c r="U46" t="n">
-        <v>1848.996589216721</v>
+        <v>1725.543380769064</v>
       </c>
       <c r="V46" t="n">
-        <v>1566.692514995569</v>
+        <v>1448.679938594475</v>
       </c>
       <c r="W46" t="n">
-        <v>1299.317544490278</v>
+        <v>1186.745600135748</v>
       </c>
       <c r="X46" t="n">
-        <v>1123.440999606088</v>
+        <v>951.4459114241412</v>
       </c>
       <c r="Y46" t="n">
-        <v>900.6727628286137</v>
+        <v>734.1183066932305</v>
       </c>
     </row>
   </sheetData>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>156.7304232042867</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>458.158265737157</v>
+        <v>0.3119943527983651</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9093,16 +9093,16 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>441.64177136275</v>
       </c>
       <c r="O16" t="n">
-        <v>141.4680432173442</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>332.1215116145966</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9327,16 +9327,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>84.04714686442145</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>450.9806536930415</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.3119943527985924</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
@@ -9558,25 +9558,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>404.6903285498108</v>
+        <v>0.3119943527988198</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9804,13 +9804,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.3119943527985924</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>112.5935765494215</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
@@ -10032,25 +10032,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>112.5935765494212</v>
+        <v>167.4632046631938</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821538</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -10278,7 +10278,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.0951821654032</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,16 +10506,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>237.8915151523856</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>87.27177728757852</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>237.8915151523847</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
@@ -10755,13 +10755,13 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>14.3805093527908</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821538</v>
@@ -10980,16 +10980,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>237.8915151523861</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>87.27177728757943</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>237.8915151523852</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
@@ -11232,10 +11232,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>14.3805093527908</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11460,16 +11460,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>448.1671204417258</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>135.747808822461</v>
+        <v>61.53888085389485</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>402.383231380763</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>414.1077046891152</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>409.7836539939921</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>403.9354118955886</v>
       </c>
       <c r="G11" t="n">
-        <v>72.06966316100628</v>
+        <v>118.1565345381105</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>190.0001956162832</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>384.5499190640474</v>
       </c>
     </row>
     <row r="12">
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>63.68067556302876</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>255.9494222324487</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>195.84521004236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>414.1077046891152</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>411.8973435780042</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>324.1976671837355</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>375.8543210080219</v>
       </c>
       <c r="H14" t="n">
-        <v>18.31976605114666</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>20.40836268805531</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>381.1535566437813</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>395.2976953871867</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>42.12290116996502</v>
       </c>
       <c r="H16" t="n">
-        <v>6.227590301962978</v>
+        <v>111.3672766151816</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>42.81099029881875</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>123.3289297115122</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>414.8589627359432</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>424.3730749331845</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>422.2593853491723</v>
+        <v>409.7836539939921</v>
       </c>
       <c r="F17" t="n">
-        <v>354.3974231786102</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>375.8543210080219</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>247.370992542233</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>32.88409404323554</v>
+        <v>20.40836268805531</v>
       </c>
       <c r="T17" t="n">
-        <v>202.4759269714635</v>
+        <v>190.0001956162832</v>
       </c>
       <c r="U17" t="n">
-        <v>249.3023725195857</v>
+        <v>236.8266411644055</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>339.337437166216</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>381.1535566437813</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>122.1814903549112</v>
       </c>
       <c r="Y17" t="n">
-        <v>397.0256504192276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>10.8373702916736</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>160.8828116676547</v>
+        <v>148.4070803124744</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>155.9161565394913</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>123.8430079703618</v>
+        <v>111.3672766151816</v>
       </c>
       <c r="I19" t="n">
-        <v>55.28672165399898</v>
+        <v>42.81099029881875</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>17.0447505690027</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>414.1077046891152</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>409.7836539939921</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>388.3300523632021</v>
+        <v>375.8543210080219</v>
       </c>
       <c r="H20" t="n">
-        <v>259.8467238974132</v>
+        <v>247.370992542233</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>32.88409404323552</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>202.4759269714635</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>249.3023725195857</v>
+        <v>151.912622714274</v>
       </c>
       <c r="V20" t="n">
-        <v>351.8131685213963</v>
+        <v>339.337437166216</v>
       </c>
       <c r="W20" t="n">
-        <v>393.6292879989616</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.773426742367</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>211.5218370927975</v>
+        <v>384.5499190640474</v>
       </c>
     </row>
     <row r="21">
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.0416008263771</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>160.8828116676547</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>167.7623714537459</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>42.81099029881875</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>27.16631052638273</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>21.07928417540256</v>
+        <v>249.6527969702757</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24214,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>409.7836539939921</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>388.3300523632021</v>
+        <v>102.7381159757467</v>
       </c>
       <c r="H23" t="n">
-        <v>259.8467238974132</v>
+        <v>247.370992542233</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>32.88409404323554</v>
+        <v>20.40836268805531</v>
       </c>
       <c r="T23" t="n">
-        <v>202.4759269714635</v>
+        <v>190.0001956162832</v>
       </c>
       <c r="U23" t="n">
-        <v>249.3023725195857</v>
+        <v>236.8266411644055</v>
       </c>
       <c r="V23" t="n">
-        <v>351.8131685213963</v>
+        <v>339.337437166216</v>
       </c>
       <c r="W23" t="n">
-        <v>393.6292879989616</v>
+        <v>381.1535566437813</v>
       </c>
       <c r="X23" t="n">
-        <v>407.773426742367</v>
+        <v>395.2976953871867</v>
       </c>
       <c r="Y23" t="n">
-        <v>211.5218370927975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>15.93637738443732</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>148.4070803124744</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.2866400985657</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>5.693774724039155</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>232.647139811512</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>268.425153587629</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>426.5834360442955</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>424.3730749331845</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>211.218029347397</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>32.88409404323554</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>249.3023725195857</v>
+        <v>35.18072073489969</v>
       </c>
       <c r="V26" t="n">
-        <v>351.8131685213963</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>393.6292879989616</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>407.773426742367</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>64.99864765878722</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.0416008263771</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>160.8828116676547</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>123.8430079703618</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>231.6232238184768</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>385.6540390020263</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>41.32587622678346</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>230.6418001634963</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>3.679170309318579</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>173.2710032375465</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>220.0974487856688</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>322.6082447874793</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>364.4243642650446</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>378.56850300845</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.763384316554777</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>2.360256329768305</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>26.08179792008202</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>42.61041419434423</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>388.2267314768085</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>397.7408436740498</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>179.4987164789921</v>
       </c>
       <c r="G32" t="n">
-        <v>361.6978211040674</v>
+        <v>385.5165191118864</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>257.0331906460975</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>6.251862784100815</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>199.6623937201477</v>
       </c>
       <c r="U32" t="n">
-        <v>222.670141260451</v>
+        <v>246.48883926827</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>366.9970567398268</v>
+        <v>390.8157547476458</v>
       </c>
       <c r="X32" t="n">
-        <v>381.1411954832322</v>
+        <v>404.9598934910512</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>394.2121171679119</v>
       </c>
     </row>
     <row r="33">
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>153.1026232881756</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>121.0294747190461</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>52.47318840268325</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>107.2825992361594</v>
+        <v>132.9911278153766</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>4.966655128163126</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25162,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>395.6271540900376</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>389.7789119916341</v>
+        <v>413.5976099994531</v>
       </c>
       <c r="G35" t="n">
-        <v>361.6978211040674</v>
+        <v>385.5165191118864</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>257.0331906460975</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.251862784100815</v>
+        <v>21.52375842065715</v>
       </c>
       <c r="T35" t="n">
-        <v>175.8436957123287</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>222.670141260451</v>
+        <v>246.48883926827</v>
       </c>
       <c r="V35" t="n">
-        <v>325.1809372622615</v>
+        <v>348.9996352700805</v>
       </c>
       <c r="W35" t="n">
-        <v>247.6751283176555</v>
+        <v>390.8157547476458</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>394.2121171679119</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>107.2825992361598</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>158.0692784163389</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>73.54709911261534</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>232.9466918244905</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>388.2267314768085</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>399.9512047851607</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>397.7408436740498</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>328.7436730587334</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>385.5165191118864</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>257.0331906460975</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.251862784100815</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>199.6623937201477</v>
       </c>
       <c r="U38" t="n">
-        <v>222.670141260451</v>
+        <v>246.48883926827</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>348.9996352700805</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>221.3148359565568</v>
       </c>
       <c r="X38" t="n">
-        <v>381.1411954832322</v>
+        <v>404.9598934910512</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>394.2121171679119</v>
       </c>
     </row>
     <row r="39">
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>158.0692784163389</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>121.0294747190461</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>52.47318840268325</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>107.2825992361594</v>
+        <v>132.9911278153766</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>43.03285148196434</v>
+        <v>172.434265862709</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>423.7699027929797</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>385.5165191118864</v>
       </c>
       <c r="H41" t="n">
-        <v>233.2144926382785</v>
+        <v>257.0331906460975</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>6.251862784100815</v>
+        <v>30.07056079191981</v>
       </c>
       <c r="T41" t="n">
-        <v>175.8436957123287</v>
+        <v>199.6623937201477</v>
       </c>
       <c r="U41" t="n">
-        <v>222.670141260451</v>
+        <v>246.48883926827</v>
       </c>
       <c r="V41" t="n">
-        <v>325.1809372622615</v>
+        <v>348.9996352700805</v>
       </c>
       <c r="W41" t="n">
-        <v>366.9970567398268</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>381.1411954832322</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>370.3934191600929</v>
+        <v>394.2121171679119</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.2825992361598</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>158.0692784163389</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>121.0294747190461</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>52.47318840268325</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>132.9911278153768</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>417.4316552107255</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>423.7699027929797</v>
       </c>
       <c r="D44" t="n">
-        <v>426.9457674079667</v>
+        <v>421.5595416818687</v>
       </c>
       <c r="E44" t="n">
-        <v>424.8320778239545</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>418.9838357255511</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>166.4618040846459</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>257.0331906460975</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.45678651801777</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>199.6623937201477</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>246.48883926827</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>348.9996352700805</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>410.3461192171492</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>399.5983428940099</v>
+        <v>394.2121171679119</v>
       </c>
     </row>
     <row r="45">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.2280675750613</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>158.4888490142735</v>
+        <v>136.8323386566539</v>
       </c>
       <c r="H46" t="n">
-        <v>126.415700445144</v>
+        <v>121.0294747190461</v>
       </c>
       <c r="I46" t="n">
-        <v>57.85941412878121</v>
+        <v>52.47318840268325</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>138.3773535414746</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>64.21513811524076</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>295770.9683534094</v>
+        <v>318684.8014226481</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>295770.9683534093</v>
+        <v>318684.8014226481</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>304139.3462356436</v>
+        <v>318684.8014226482</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>304139.3462356437</v>
+        <v>318684.8014226483</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>304139.3462356436</v>
+        <v>318684.8014226481</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>304139.3462356435</v>
+        <v>295770.9683534093</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>338189.3668170174</v>
+        <v>295770.9683534093</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>335189.8646606688</v>
+        <v>307419.6446533525</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>335189.8646606688</v>
+        <v>307419.6446533526</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>335189.8646606688</v>
+        <v>307419.6446533526</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>335189.8646606687</v>
+        <v>307419.6446533526</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>301139.8440792949</v>
+        <v>307419.6446533526</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>457961.5537785679</v>
       </c>
       <c r="C2" t="n">
-        <v>457961.5537785679</v>
+        <v>457961.5537785678</v>
       </c>
       <c r="D2" t="n">
-        <v>457961.5537785679</v>
+        <v>457961.5537785678</v>
       </c>
       <c r="E2" t="n">
+        <v>300625.5280958617</v>
+      </c>
+      <c r="F2" t="n">
+        <v>300625.5280958616</v>
+      </c>
+      <c r="G2" t="n">
+        <v>300625.5280958617</v>
+      </c>
+      <c r="H2" t="n">
+        <v>300625.5280958617</v>
+      </c>
+      <c r="I2" t="n">
+        <v>300625.5280958618</v>
+      </c>
+      <c r="J2" t="n">
         <v>275270.7497764303</v>
       </c>
-      <c r="F2" t="n">
-        <v>275270.7497764303</v>
-      </c>
-      <c r="G2" t="n">
-        <v>284530.5870745436</v>
-      </c>
-      <c r="H2" t="n">
-        <v>284530.5870745436</v>
-      </c>
-      <c r="I2" t="n">
-        <v>284530.5870745437</v>
-      </c>
-      <c r="J2" t="n">
-        <v>284530.5870745436</v>
-      </c>
       <c r="K2" t="n">
-        <v>322207.85918367</v>
+        <v>275270.7497764304</v>
       </c>
       <c r="L2" t="n">
-        <v>318888.8286219536</v>
+        <v>288160.3263220661</v>
       </c>
       <c r="M2" t="n">
-        <v>318888.8286219537</v>
+        <v>288160.3263220661</v>
       </c>
       <c r="N2" t="n">
-        <v>318888.8286219536</v>
+        <v>288160.3263220662</v>
       </c>
       <c r="O2" t="n">
-        <v>318888.8286219536</v>
+        <v>288160.3263220662</v>
       </c>
       <c r="P2" t="n">
-        <v>281211.5565128272</v>
+        <v>288160.3263220662</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>551135.2009906757</v>
+        <v>566857.8757101123</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5742.089635292362</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,10 +26392,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>23363.93898713357</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3683.935655466573</v>
+        <v>7992.91623634495</v>
       </c>
       <c r="M3" t="n">
         <v>147050.7684025714</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
-        <v>20967.98795247262</v>
+        <v>37489.07315460392</v>
       </c>
       <c r="F4" t="n">
+        <v>37489.07315460392</v>
+      </c>
+      <c r="G4" t="n">
+        <v>37489.07315460392</v>
+      </c>
+      <c r="H4" t="n">
+        <v>37489.07315460392</v>
+      </c>
+      <c r="I4" t="n">
+        <v>37489.07315460392</v>
+      </c>
+      <c r="J4" t="n">
         <v>20967.98795247263</v>
       </c>
-      <c r="G4" t="n">
-        <v>27001.66566925872</v>
-      </c>
-      <c r="H4" t="n">
-        <v>27001.66566925871</v>
-      </c>
-      <c r="I4" t="n">
-        <v>27001.66566925872</v>
-      </c>
-      <c r="J4" t="n">
-        <v>27001.66566925872</v>
-      </c>
       <c r="K4" t="n">
-        <v>51552.04488601223</v>
+        <v>20967.98795247264</v>
       </c>
       <c r="L4" t="n">
-        <v>49389.37613743266</v>
+        <v>29366.7911148194</v>
       </c>
       <c r="M4" t="n">
-        <v>49389.37613743265</v>
+        <v>29366.7911148194</v>
       </c>
       <c r="N4" t="n">
-        <v>49389.37613743266</v>
+        <v>29366.79111481942</v>
       </c>
       <c r="O4" t="n">
-        <v>49389.37613743266</v>
+        <v>29366.7911148194</v>
       </c>
       <c r="P4" t="n">
-        <v>24838.99692067915</v>
+        <v>29366.79111481941</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>47703.31813587319</v>
+      </c>
+      <c r="F5" t="n">
+        <v>47703.31813587319</v>
+      </c>
+      <c r="G5" t="n">
+        <v>47703.3181358732</v>
+      </c>
+      <c r="H5" t="n">
+        <v>47703.3181358732</v>
+      </c>
+      <c r="I5" t="n">
+        <v>47703.3181358732</v>
+      </c>
+      <c r="J5" t="n">
         <v>46051.08120963782</v>
       </c>
-      <c r="F5" t="n">
+      <c r="K5" t="n">
         <v>46051.08120963782</v>
       </c>
-      <c r="G5" t="n">
-        <v>46654.49587657456</v>
-      </c>
-      <c r="H5" t="n">
-        <v>46654.49587657456</v>
-      </c>
-      <c r="I5" t="n">
-        <v>46654.49587657456</v>
-      </c>
-      <c r="J5" t="n">
-        <v>46654.49587657455</v>
-      </c>
-      <c r="K5" t="n">
-        <v>49109.72460996123</v>
-      </c>
       <c r="L5" t="n">
-        <v>48893.44092629876</v>
+        <v>46891.02680347941</v>
       </c>
       <c r="M5" t="n">
-        <v>48893.44092629875</v>
+        <v>46891.02680347941</v>
       </c>
       <c r="N5" t="n">
-        <v>48893.44092629876</v>
+        <v>46891.02680347943</v>
       </c>
       <c r="O5" t="n">
-        <v>48893.44092629875</v>
+        <v>46891.02680347941</v>
       </c>
       <c r="P5" t="n">
-        <v>46438.21219291209</v>
+        <v>46891.02680347943</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>125603.2374667351</v>
+        <v>125571.3307492335</v>
       </c>
       <c r="C6" t="n">
-        <v>125603.2374667351</v>
+        <v>125571.3307492334</v>
       </c>
       <c r="D6" t="n">
-        <v>125603.2374667351</v>
+        <v>125571.3307492334</v>
       </c>
       <c r="E6" t="n">
-        <v>-342883.5203763559</v>
+        <v>-351906.1771241798</v>
       </c>
       <c r="F6" t="n">
-        <v>208251.6806143198</v>
+        <v>214951.6985859324</v>
       </c>
       <c r="G6" t="n">
-        <v>205132.335893418</v>
+        <v>214951.6985859325</v>
       </c>
       <c r="H6" t="n">
-        <v>210874.4255287103</v>
+        <v>214951.6985859325</v>
       </c>
       <c r="I6" t="n">
-        <v>210874.4255287104</v>
+        <v>214951.6985859325</v>
       </c>
       <c r="J6" t="n">
-        <v>210874.4255287103</v>
+        <v>207697.8001710979</v>
       </c>
       <c r="K6" t="n">
-        <v>198182.150700563</v>
+        <v>207697.800171098</v>
       </c>
       <c r="L6" t="n">
-        <v>216922.0759027556</v>
+        <v>203392.5390857593</v>
       </c>
       <c r="M6" t="n">
-        <v>73555.24315565082</v>
+        <v>64334.68691953292</v>
       </c>
       <c r="N6" t="n">
-        <v>220606.0115582221</v>
+        <v>211385.4553221044</v>
       </c>
       <c r="O6" t="n">
-        <v>220606.0115582222</v>
+        <v>211385.4553221044</v>
       </c>
       <c r="P6" t="n">
-        <v>209934.3473992359</v>
+        <v>211385.4553221044</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="G2" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="H2" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="I2" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="J2" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="M2" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="N2" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="O2" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="P2" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
     </row>
     <row r="3">
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
         <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
         <v>466.7019280932212</v>
@@ -26798,28 +26798,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="F4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="G4" t="n">
+        <v>590.0818943619341</v>
+      </c>
+      <c r="H4" t="n">
+        <v>590.0818943619341</v>
+      </c>
+      <c r="I4" t="n">
+        <v>590.0818943619341</v>
+      </c>
+      <c r="J4" t="n">
         <v>590.0818943619342</v>
-      </c>
-      <c r="F4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="G4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="H4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="I4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="J4" t="n">
-        <v>590.0818943619341</v>
       </c>
       <c r="K4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="M4" t="n">
         <v>590.0818943619341</v>
@@ -26831,7 +26831,7 @@
         <v>590.0818943619341</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
     </row>
   </sheetData>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26934,10 +26934,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>29.20492373391696</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.604919569333216</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>29.20492373391696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>19.65334339929568</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="C17" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="D17" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="E17" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="F17" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="G17" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="H17" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="T17" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="U17" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="V17" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="W17" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="X17" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="C19" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="D19" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="E19" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="F19" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="G19" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="H19" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="I19" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="J19" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="K19" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="L19" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="M19" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="N19" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="O19" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="P19" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="R19" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="S19" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="T19" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="U19" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="V19" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="W19" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="X19" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="C20" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="D20" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="E20" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="F20" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="G20" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="H20" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="T20" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="U20" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="V20" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="W20" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="X20" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="C22" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="D22" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="E22" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="F22" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="G22" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="H22" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="I22" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="J22" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="K22" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="L22" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="M22" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="N22" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="O22" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="P22" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="R22" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="S22" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="T22" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="U22" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="V22" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="W22" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="X22" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="C23" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="D23" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="E23" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="F23" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="G23" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="H23" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="T23" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="U23" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="V23" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="W23" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="X23" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="C25" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="D25" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="E25" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="F25" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="G25" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="H25" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="I25" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="J25" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="K25" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="L25" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="M25" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="N25" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="O25" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="P25" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="R25" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="S25" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="T25" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="U25" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="V25" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="W25" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="X25" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.177612044115453</v>
+        <v>19.65334339929568</v>
       </c>
     </row>
     <row r="26">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.177612044115453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.38253577803241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="C32" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="D32" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="E32" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="F32" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="G32" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="H32" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="T32" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="U32" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="V32" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="W32" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="X32" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="Y32" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="C34" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="D34" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="E34" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="F34" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="G34" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="H34" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="I34" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="J34" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="K34" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="L34" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="M34" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="N34" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="O34" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="P34" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="Q34" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="R34" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="S34" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="T34" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="U34" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="V34" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="W34" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="X34" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="Y34" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="C35" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="D35" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="E35" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="F35" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="G35" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="H35" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="T35" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="U35" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="V35" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="W35" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="X35" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="Y35" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="C37" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="D37" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="E37" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="F37" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="G37" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="H37" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="I37" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="J37" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="K37" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="L37" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="M37" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="N37" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="O37" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="P37" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="Q37" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="R37" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="S37" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="T37" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="U37" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="V37" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="W37" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="X37" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="Y37" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="C38" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="D38" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="E38" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="F38" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="G38" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="H38" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="T38" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="U38" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="V38" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="W38" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="X38" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="Y38" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="C40" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="D40" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="E40" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="F40" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="G40" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="H40" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="I40" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="J40" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="K40" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="L40" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="M40" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="N40" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="O40" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="P40" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="Q40" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="R40" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="S40" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="T40" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="U40" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="V40" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="W40" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="X40" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="Y40" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
     </row>
     <row r="41">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="C41" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="D41" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="E41" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="F41" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="G41" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="H41" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="T41" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="U41" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="V41" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="W41" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="X41" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="Y41" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="C43" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="D43" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="E43" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="F43" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="G43" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="H43" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="I43" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="J43" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="K43" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="L43" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="M43" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="N43" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="O43" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="P43" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="Q43" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="R43" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="S43" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="T43" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="U43" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="V43" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="W43" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="X43" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="Y43" t="n">
-        <v>33.80984330325018</v>
+        <v>9.991145295431187</v>
       </c>
     </row>
     <row r="44">
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="C44" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="D44" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="E44" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="F44" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="G44" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="H44" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="T44" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="U44" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="V44" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="W44" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="X44" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="Y44" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="C46" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="D46" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="E46" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="F46" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="G46" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="H46" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="I46" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="J46" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="K46" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="L46" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="M46" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="N46" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="O46" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="P46" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="Q46" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="R46" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="S46" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="T46" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="U46" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="V46" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="W46" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="X46" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
       <c r="Y46" t="n">
-        <v>4.604919569333217</v>
+        <v>9.991145295431187</v>
       </c>
     </row>
   </sheetData>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31858,19 +31858,19 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32247,7 +32247,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
         <v>316.1166813548411</v>
@@ -32262,10 +32262,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,10 +32308,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -32320,7 +32320,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
@@ -32332,22 +32332,22 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998885</v>
@@ -32414,10 +32414,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
         <v>14.66668190417549</v>
@@ -32426,7 +32426,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,31 +32466,31 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H20" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699062</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32499,10 +32499,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233554</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998885</v>
@@ -32651,19 +32651,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -33049,7 +33049,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
@@ -33277,7 +33277,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
         <v>191.6912126917233</v>
@@ -33499,7 +33499,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -33760,7 +33760,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
@@ -34210,7 +34210,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -34365,7 +34365,7 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699034</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
@@ -34471,7 +34471,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
@@ -35406,16 +35406,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
@@ -35433,7 +35433,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
@@ -35500,7 +35500,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>166.6082412446219</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>394.9650152565622</v>
       </c>
       <c r="L13" t="n">
-        <v>281.8524450409513</v>
+        <v>567.2095892440018</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619342</v>
+        <v>151.8889663768712</v>
       </c>
       <c r="N13" t="n">
-        <v>575.5128433954892</v>
+        <v>148.440122999184</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561043</v>
+        <v>138.6087791041055</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>472.4573334478059</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420766</v>
+        <v>260.0170263235259</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027015</v>
+        <v>36.29081074956582</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,13 +35643,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L14" t="n">
         <v>296.0766412766674</v>
@@ -35658,13 +35658,13 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O14" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -35734,7 +35734,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>166.6082412446219</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572664</v>
+        <v>394.9650152565622</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>144.7753652359602</v>
       </c>
       <c r="M16" t="n">
+        <v>151.5769720240729</v>
+      </c>
+      <c r="N16" t="n">
         <v>590.0818943619341</v>
       </c>
-      <c r="N16" t="n">
-        <v>128.7867795998884</v>
-      </c>
       <c r="O16" t="n">
-        <v>260.4234789221541</v>
+        <v>138.6087791041055</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>453.5617804458957</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.3636829242305</v>
+        <v>260.0170263235259</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027015</v>
+        <v>36.29081074956582</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
@@ -35892,16 +35892,16 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>154.1325098894417</v>
+        <v>166.6082412446219</v>
       </c>
       <c r="K19" t="n">
-        <v>382.4892839013819</v>
+        <v>394.9650152565622</v>
       </c>
       <c r="L19" t="n">
-        <v>216.3467807452015</v>
+        <v>567.2095892440018</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619342</v>
+        <v>151.5769720240728</v>
       </c>
       <c r="N19" t="n">
-        <v>135.9643916440039</v>
+        <v>148.440122999184</v>
       </c>
       <c r="O19" t="n">
-        <v>126.1330477489253</v>
+        <v>138.9207734569043</v>
       </c>
       <c r="P19" t="n">
-        <v>459.9816020926257</v>
+        <v>472.4573334478059</v>
       </c>
       <c r="Q19" t="n">
-        <v>247.5412949683455</v>
+        <v>260.0170263235259</v>
       </c>
       <c r="R19" t="n">
-        <v>23.81507939438561</v>
+        <v>36.29081074956582</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,28 +36117,28 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233554</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>66.67828245036105</v>
+        <v>166.6082412446219</v>
       </c>
       <c r="K22" t="n">
-        <v>104.9554914052854</v>
+        <v>394.9650152565622</v>
       </c>
       <c r="L22" t="n">
-        <v>554.7338578888216</v>
+        <v>567.2095892440018</v>
       </c>
       <c r="M22" t="n">
-        <v>543.7915692187036</v>
+        <v>151.8889663768716</v>
       </c>
       <c r="N22" t="n">
-        <v>135.9643916440039</v>
+        <v>148.440122999184</v>
       </c>
       <c r="O22" t="n">
-        <v>550.0413803002198</v>
+        <v>138.6087791041055</v>
       </c>
       <c r="P22" t="n">
-        <v>108.9645374761189</v>
+        <v>472.4573334478059</v>
       </c>
       <c r="Q22" t="n">
-        <v>247.5412949683455</v>
+        <v>260.0170263235259</v>
       </c>
       <c r="R22" t="n">
-        <v>23.81507939438561</v>
+        <v>36.29081074956582</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062836</v>
       </c>
       <c r="L23" t="n">
         <v>296.0766412766674</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>154.1325098894417</v>
+        <v>166.6082412446219</v>
       </c>
       <c r="K25" t="n">
-        <v>382.4892839013819</v>
+        <v>394.9650152565622</v>
       </c>
       <c r="L25" t="n">
-        <v>554.7338578888215</v>
+        <v>567.2095892440018</v>
       </c>
       <c r="M25" t="n">
-        <v>139.1012406688926</v>
+        <v>151.8889663768714</v>
       </c>
       <c r="N25" t="n">
-        <v>135.9643916440039</v>
+        <v>148.440122999184</v>
       </c>
       <c r="O25" t="n">
-        <v>238.7266242983469</v>
+        <v>138.6087791041057</v>
       </c>
       <c r="P25" t="n">
-        <v>459.9816020926257</v>
+        <v>472.4573334478059</v>
       </c>
       <c r="Q25" t="n">
-        <v>247.5412949683455</v>
+        <v>260.0170263235259</v>
       </c>
       <c r="R25" t="n">
-        <v>23.8150793943856</v>
+        <v>36.29081074956582</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125713</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N27" t="n">
         <v>261.0845059811313</v>
@@ -36691,7 +36691,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>154.1325098894417</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>382.4892839013819</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
-        <v>554.7338578888215</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>251.6948172183138</v>
+        <v>299.3868332879711</v>
       </c>
       <c r="N28" t="n">
-        <v>135.9643916440039</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O28" t="n">
-        <v>126.1330477489253</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>459.9816020926257</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>247.5412949683455</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
-        <v>23.8150793943856</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>95.88320618427801</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K31" t="n">
-        <v>411.6942076352989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>583.9387816227384</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M31" t="n">
-        <v>168.3061644028096</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N31" t="n">
-        <v>165.1693153779208</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
-        <v>155.3379714828422</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P31" t="n">
-        <v>489.1865258265427</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q31" t="n">
-        <v>213.949709085512</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
-        <v>53.02000312830256</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
         <v>269.7982739184536</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.31051370949575</v>
+        <v>156.9460431407574</v>
       </c>
       <c r="K34" t="n">
-        <v>369.4792378168057</v>
+        <v>385.3028171526976</v>
       </c>
       <c r="L34" t="n">
-        <v>581.3660891479562</v>
+        <v>557.5473911401373</v>
       </c>
       <c r="M34" t="n">
-        <v>165.7334719280275</v>
+        <v>229.186551207787</v>
       </c>
       <c r="N34" t="n">
-        <v>162.5966229031387</v>
+        <v>138.7779248953195</v>
       </c>
       <c r="O34" t="n">
-        <v>152.7652790080601</v>
+        <v>128.9465810002412</v>
       </c>
       <c r="P34" t="n">
-        <v>486.6138333517604</v>
+        <v>462.7951353439414</v>
       </c>
       <c r="Q34" t="n">
-        <v>274.1735262274801</v>
+        <v>250.3548282196616</v>
       </c>
       <c r="R34" t="n">
-        <v>50.44731065352032</v>
+        <v>26.62861264570133</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.31051370949575</v>
+        <v>156.9460431407574</v>
       </c>
       <c r="K37" t="n">
-        <v>369.4792378168048</v>
+        <v>385.3028171526976</v>
       </c>
       <c r="L37" t="n">
-        <v>581.3660891479562</v>
+        <v>557.5473911401373</v>
       </c>
       <c r="M37" t="n">
-        <v>165.7334719280275</v>
+        <v>141.9147739202085</v>
       </c>
       <c r="N37" t="n">
-        <v>162.5966229031387</v>
+        <v>153.1584342481106</v>
       </c>
       <c r="O37" t="n">
-        <v>152.7652790080601</v>
+        <v>552.8549135515354</v>
       </c>
       <c r="P37" t="n">
-        <v>486.6138333517604</v>
+        <v>111.7780707274346</v>
       </c>
       <c r="Q37" t="n">
-        <v>274.1735262274806</v>
+        <v>250.3548282196616</v>
       </c>
       <c r="R37" t="n">
-        <v>50.44731065352032</v>
+        <v>26.62861264570133</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>93.31051370949575</v>
+        <v>156.9460431407574</v>
       </c>
       <c r="K40" t="n">
-        <v>369.4792378168061</v>
+        <v>385.3028171526977</v>
       </c>
       <c r="L40" t="n">
-        <v>581.3660891479562</v>
+        <v>557.5473911401372</v>
       </c>
       <c r="M40" t="n">
-        <v>165.7334719280273</v>
+        <v>229.1865512077879</v>
       </c>
       <c r="N40" t="n">
-        <v>162.5966229031385</v>
+        <v>138.7779248953195</v>
       </c>
       <c r="O40" t="n">
-        <v>152.7652790080601</v>
+        <v>128.9465810002412</v>
       </c>
       <c r="P40" t="n">
-        <v>486.6138333517604</v>
+        <v>462.7951353439414</v>
       </c>
       <c r="Q40" t="n">
-        <v>274.1735262274801</v>
+        <v>250.3548282196612</v>
       </c>
       <c r="R40" t="n">
-        <v>50.44731065352032</v>
+        <v>26.62861264570133</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062838</v>
@@ -37788,7 +37788,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
@@ -37858,7 +37858,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.31051370949575</v>
+        <v>156.9460431407574</v>
       </c>
       <c r="K43" t="n">
-        <v>369.4792378168052</v>
+        <v>385.3028171526976</v>
       </c>
       <c r="L43" t="n">
-        <v>581.3660891479562</v>
+        <v>557.5473911401373</v>
       </c>
       <c r="M43" t="n">
-        <v>165.7334719280273</v>
+        <v>141.9147739202085</v>
       </c>
       <c r="N43" t="n">
-        <v>162.5966229031385</v>
+        <v>138.7779248953198</v>
       </c>
       <c r="O43" t="n">
-        <v>152.7652790080601</v>
+        <v>552.8549135515354</v>
       </c>
       <c r="P43" t="n">
-        <v>486.6138333517604</v>
+        <v>126.1585800802254</v>
       </c>
       <c r="Q43" t="n">
-        <v>274.1735262274806</v>
+        <v>250.3548282196616</v>
       </c>
       <c r="R43" t="n">
-        <v>50.44731065352032</v>
+        <v>26.62861264570133</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,10 +38013,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785894</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125713</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
@@ -38025,7 +38025,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
@@ -38034,13 +38034,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562339</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>151.5598174146595</v>
+        <v>156.9460431407574</v>
       </c>
       <c r="K46" t="n">
-        <v>379.9165914265997</v>
+        <v>385.3028171526977</v>
       </c>
       <c r="L46" t="n">
-        <v>552.1611654140391</v>
+        <v>135.1131671320958</v>
       </c>
       <c r="M46" t="n">
-        <v>136.5285481941103</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N46" t="n">
-        <v>133.3916991692215</v>
+        <v>138.7779248953198</v>
       </c>
       <c r="O46" t="n">
-        <v>259.3081640966041</v>
+        <v>190.485461854136</v>
       </c>
       <c r="P46" t="n">
-        <v>457.4089096178434</v>
+        <v>462.7951353439414</v>
       </c>
       <c r="Q46" t="n">
-        <v>244.9686024935636</v>
+        <v>250.3548282196612</v>
       </c>
       <c r="R46" t="n">
-        <v>21.24238691960336</v>
+        <v>26.62861264570133</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
